--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.704056</v>
+        <v>1.193633666666667</v>
       </c>
       <c r="N2">
-        <v>2.112168</v>
+        <v>3.580901</v>
       </c>
       <c r="O2">
-        <v>0.06182348620901491</v>
+        <v>0.0852504197348203</v>
       </c>
       <c r="P2">
-        <v>0.0618234862090149</v>
+        <v>0.08525041973482028</v>
       </c>
       <c r="Q2">
-        <v>0.9266996288800002</v>
+        <v>1.571096441076667</v>
       </c>
       <c r="R2">
-        <v>8.340296659920002</v>
+        <v>14.13986796969</v>
       </c>
       <c r="S2">
-        <v>0.06182348620901491</v>
+        <v>0.0852504197348203</v>
       </c>
       <c r="T2">
-        <v>0.0618234862090149</v>
+        <v>0.08525041973482028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>25.93955</v>
       </c>
       <c r="O3">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064692</v>
       </c>
       <c r="P3">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064691</v>
       </c>
       <c r="Q3">
         <v>11.38080463216667</v>
@@ -635,10 +635,10 @@
         <v>102.4272416895</v>
       </c>
       <c r="S3">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064692</v>
       </c>
       <c r="T3">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.618446666666667</v>
+        <v>4.028899666666667</v>
       </c>
       <c r="N4">
-        <v>4.85534</v>
+        <v>12.086699</v>
       </c>
       <c r="O4">
-        <v>0.1421165577407093</v>
+        <v>0.2877477380576656</v>
       </c>
       <c r="P4">
-        <v>0.1421165577407092</v>
+        <v>0.2877477380576655</v>
       </c>
       <c r="Q4">
-        <v>2.130248056066667</v>
+        <v>5.302958608256667</v>
       </c>
       <c r="R4">
-        <v>19.1722325046</v>
+        <v>47.72662747431</v>
       </c>
       <c r="S4">
-        <v>0.1421165577407093</v>
+        <v>0.2877477380576656</v>
       </c>
       <c r="T4">
-        <v>0.1421165577407092</v>
+        <v>0.2877477380576655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4191446666666667</v>
+        <v>0.132449</v>
       </c>
       <c r="N5">
-        <v>1.257434</v>
+        <v>0.397347</v>
       </c>
       <c r="O5">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044888</v>
       </c>
       <c r="P5">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044887</v>
       </c>
       <c r="Q5">
-        <v>0.5516907846066669</v>
+        <v>0.17433334727</v>
       </c>
       <c r="R5">
-        <v>4.965217061460002</v>
+        <v>1.56900012543</v>
       </c>
       <c r="S5">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044888</v>
       </c>
       <c r="T5">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044887</v>
       </c>
     </row>
   </sheetData>
